--- a/Documentation/Työnjako.xlsx
+++ b/Documentation/Työnjako.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SpaceShooter kuvat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5250" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Työnjako</t>
   </si>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,12 +196,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -218,9 +212,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,32 +517,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -551,864 +551,873 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
         <v>0.5</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
         <v>0.5</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9">
+      <c r="H8" s="6"/>
+      <c r="I8" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>3.5</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>3.5</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
         <v>1.5</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8">
-        <v>3</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8">
-        <v>3</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6">
         <v>10</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>4</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>2.5</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8">
-        <v>5</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8">
-        <v>5</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="8">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9">
-        <v>3</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8">
-        <v>5</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>1</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8">
-        <v>5</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="8">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
         <v>0.5</v>
       </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7">
         <v>0.5</v>
       </c>
-      <c r="H30" s="8">
-        <v>2</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8">
-        <v>5</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8">
-        <v>5</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8">
-        <v>5</v>
-      </c>
-      <c r="G34" s="9">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8">
-        <v>5</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8">
-        <v>5</v>
-      </c>
-      <c r="G36" s="9">
-        <v>3</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>10</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>6</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>10</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>4</v>
       </c>
-      <c r="F38" s="8">
-        <v>5</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7">
         <v>4</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="6">
         <v>15</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="8">
-        <v>5</v>
-      </c>
-      <c r="E39" s="9">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
+      <c r="D39" s="6">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>10</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>4.5</v>
       </c>
-      <c r="F40" s="8">
-        <v>5</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="F40" s="6">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7">
         <v>4.5</v>
       </c>
-      <c r="H40" s="8">
-        <v>5</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="H40" s="6">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
         <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="B41" s="5">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="D43" s="8">
+      <c r="B43" s="5"/>
+      <c r="D43" s="6">
         <f>SUM(D8:D41)</f>
-        <v>57.5</v>
-      </c>
-      <c r="E43" s="10">
+        <v>60</v>
+      </c>
+      <c r="E43" s="8">
         <f t="shared" ref="E43:I43" si="0">SUM(E8:E41)</f>
-        <v>36.5</v>
-      </c>
-      <c r="F43" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+      <c r="B45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="B46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="B47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="B48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="B49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="B50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+      <c r="B51" s="5"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="B52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="B53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="B54" s="5"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="B55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="B56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="B57" s="5"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="B58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="B59" s="5"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="5"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="B61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
+      <c r="B62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/Työnjako.xlsx
+++ b/Documentation/Työnjako.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SpaceShooter kuvat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ville\Source\Repos\SpaceShooter\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="G40" s="7">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="H40" s="6">
         <v>5</v>
       </c>
       <c r="I40" s="7">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G43" s="8">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="0"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documentation/Työnjako.xlsx
+++ b/Documentation/Työnjako.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>Työnjako</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Viikko</t>
   </si>
@@ -108,22 +105,18 @@
   </si>
   <si>
     <t>Viimeistely</t>
+  </si>
+  <si>
+    <t>Yhteensä</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -190,11 +183,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -212,11 +227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I62"/>
+  <dimension ref="B2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,460 +533,732 @@
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="11">
+        <f>D4+F4+H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f>E4+G4+I4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J37" si="0">D5+F5+H5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K37" si="1">E5+G5+I5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="6">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6">
         <v>5</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="6">
-        <v>5</v>
-      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="7">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="6">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -979,300 +1268,346 @@
         <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="6">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="6">
-        <v>5</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7">
-        <v>5</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="7">
+        <v>16</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="6">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4.5</v>
+      </c>
       <c r="F36" s="6">
         <v>5</v>
       </c>
       <c r="G36" s="7">
-        <v>3</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10.5</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="6">
-        <v>10</v>
-      </c>
-      <c r="E38" s="7">
-        <v>4</v>
-      </c>
-      <c r="F38" s="6">
-        <v>5</v>
-      </c>
-      <c r="G38" s="7">
-        <v>4</v>
-      </c>
-      <c r="H38" s="6">
-        <v>15</v>
-      </c>
-      <c r="I38" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
       <c r="D39" s="6">
-        <v>5</v>
-      </c>
-      <c r="E39" s="7">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="6">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="H40" s="6">
-        <v>5</v>
-      </c>
-      <c r="I40" s="7">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E41" s="7">
-        <v>7</v>
-      </c>
+        <f>SUM(D4:D37)</f>
+        <v>60</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ref="E39:I39" si="2">SUM(E4:E37)</f>
+        <v>43.5</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J39" s="11">
+        <f>SUM(J4:J37)</f>
+        <v>194</v>
+      </c>
+      <c r="K39" s="12">
+        <f>SUM(K4:K37)</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="D43" s="6">
-        <f>SUM(D8:D41)</f>
-        <v>60</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" ref="E43:I43" si="0">SUM(E8:E41)</f>
-        <v>43.5</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="0"/>
-        <v>43.5</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1281,7 +1616,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1290,7 +1625,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1382,47 +1717,8 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
